--- a/test/test_NO8/prepareInput/Workflow.xlsx
+++ b/test/test_NO8/prepareInput/Workflow.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="99">
   <si>
     <t>Code Identifier</t>
   </si>
@@ -179,9 +179,6 @@
     <t>sensitivity analysis is performed</t>
   </si>
   <si>
-    <t>Workflow.xlsx</t>
-  </si>
-  <si>
     <t>Output</t>
   </si>
   <si>
@@ -306,6 +303,21 @@
   </si>
   <si>
     <t>ml/kg</t>
+  </si>
+  <si>
+    <t>Sensitivity</t>
+  </si>
+  <si>
+    <t>sensXls</t>
+  </si>
+  <si>
+    <t>xlsfilefor sensitivity Parameter definition; if it is empty, sheet is in this xlsfile</t>
+  </si>
+  <si>
+    <t>sensSheet</t>
+  </si>
+  <si>
+    <t>xlssheet for sensitivity Parameter definition; if empty first sheet is taken</t>
   </si>
 </sst>
 </file>
@@ -740,10 +752,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F26"/>
+  <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -805,7 +817,7 @@
         <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
@@ -816,7 +828,7 @@
         <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -835,7 +847,7 @@
         <v>17</v>
       </c>
       <c r="C7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="39.6" x14ac:dyDescent="0.25">
@@ -875,7 +887,7 @@
         <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -906,9 +918,6 @@
       <c r="B14" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C14" t="s">
-        <v>52</v>
-      </c>
     </row>
     <row r="15" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
@@ -918,7 +927,7 @@
         <v>32</v>
       </c>
       <c r="C15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="39.6" x14ac:dyDescent="0.25">
@@ -980,63 +989,53 @@
       </c>
     </row>
     <row r="22" spans="1:6" ht="49.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="10"/>
-      <c r="B22" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="C22" s="10"/>
+      <c r="A22" s="7"/>
+      <c r="B22" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="C22" s="7"/>
       <c r="D22" s="7"/>
       <c r="E22" s="7"/>
       <c r="F22" s="7"/>
     </row>
     <row r="23" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
-        <v>44</v>
+        <v>95</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="C23">
-        <v>1</v>
+        <v>96</v>
       </c>
       <c r="D23" s="7"/>
       <c r="E23" s="7"/>
       <c r="F23" s="7"/>
     </row>
-    <row r="24" spans="1:6" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="s">
-        <v>46</v>
+        <v>97</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="C24">
-        <v>1</v>
+        <v>98</v>
       </c>
       <c r="D24" s="7"/>
       <c r="E24" s="7"/>
       <c r="F24" s="7"/>
     </row>
     <row r="25" spans="1:6" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="C25">
-        <v>1</v>
-      </c>
+      <c r="A25" s="10"/>
+      <c r="B25" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C25" s="10"/>
       <c r="D25" s="7"/>
       <c r="E25" s="7"/>
       <c r="F25" s="7"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="C26">
         <v>1</v>
@@ -1044,6 +1043,45 @@
       <c r="D26" s="7"/>
       <c r="E26" s="7"/>
       <c r="F26" s="7"/>
+    </row>
+    <row r="27" spans="1:6" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A27" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -1069,27 +1107,27 @@
         <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="D1" s="6" t="s">
         <v>55</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="C2" t="s">
         <v>58</v>
       </c>
-      <c r="C2" t="s">
-        <v>59</v>
-      </c>
       <c r="D2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -1097,27 +1135,27 @@
         <v>12</v>
       </c>
       <c r="B3" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="C3" t="s">
         <v>60</v>
       </c>
-      <c r="C3" t="s">
-        <v>61</v>
-      </c>
       <c r="D3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="B4" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="C4" t="s">
         <v>63</v>
       </c>
-      <c r="C4" t="s">
-        <v>64</v>
-      </c>
       <c r="D4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="41.4" x14ac:dyDescent="0.25">
@@ -1125,40 +1163,40 @@
         <v>40</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="B6" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="C6" t="s">
         <v>67</v>
       </c>
-      <c r="C6" t="s">
-        <v>68</v>
-      </c>
       <c r="D6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A7" s="15"/>
       <c r="B7" s="16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C7" s="10"/>
       <c r="D7" s="10"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="B8" t="s">
         <v>70</v>
       </c>
-      <c r="B8" t="s">
-        <v>71</v>
-      </c>
       <c r="C8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D8">
         <v>-1</v>
@@ -1166,10 +1204,10 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C9">
         <v>-1</v>
@@ -1180,13 +1218,13 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D10">
         <v>-1</v>
@@ -1194,13 +1232,13 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D11">
         <v>-1</v>
@@ -1208,13 +1246,13 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D12">
         <v>-1</v>
@@ -1222,10 +1260,10 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B13" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C13">
         <v>-1</v>
@@ -1236,10 +1274,10 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C14">
         <v>-1</v>
@@ -1250,10 +1288,10 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C15">
         <v>-1</v>
@@ -1264,10 +1302,10 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B16" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C16">
         <v>-1</v>
@@ -1278,10 +1316,10 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B17" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C17">
         <v>-1</v>
@@ -1292,10 +1330,10 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B18" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C18">
         <v>-1</v>
@@ -1306,13 +1344,13 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B19" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C19" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D19">
         <v>-1</v>
@@ -1320,13 +1358,13 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B20" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C20" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D20">
         <v>-1</v>
@@ -1334,10 +1372,10 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B21" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C21">
         <v>-1</v>
